--- a/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>199242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174062</v>
+        <v>175137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223128</v>
+        <v>222831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2979256923038885</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2602738536463499</v>
+        <v>0.2618824483896022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.333643470126064</v>
+        <v>0.3331987142753574</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>182</v>
@@ -762,19 +762,19 @@
         <v>184295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161244</v>
+        <v>162440</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>208361</v>
+        <v>207885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2782004876062455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2434037962323423</v>
+        <v>0.2452084825327041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3145290783922849</v>
+        <v>0.3138094577728727</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>378</v>
@@ -783,19 +783,19 @@
         <v>383537</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>349054</v>
+        <v>350170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>415233</v>
+        <v>419146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.288109821304831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2622062654983457</v>
+        <v>0.263044841848279</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3119198117442754</v>
+        <v>0.3148587610478439</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>125075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104925</v>
+        <v>105347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145991</v>
+        <v>145431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1870237110712356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1568942264679193</v>
+        <v>0.1575245453334569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2182995231656509</v>
+        <v>0.2174619758781871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -833,19 +833,19 @@
         <v>104077</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86446</v>
+        <v>85414</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123732</v>
+        <v>123862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1571073826740175</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1304933477860538</v>
+        <v>0.1289355337389468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1867784932918938</v>
+        <v>0.1869740492612379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -854,19 +854,19 @@
         <v>229151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>202945</v>
+        <v>203738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>254773</v>
+        <v>259132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1721364222033223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1524509379441706</v>
+        <v>0.1530464961594448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1913835629234221</v>
+        <v>0.194657699120372</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>132423</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112406</v>
+        <v>112156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153242</v>
+        <v>155226</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1980119419737331</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1680809518385775</v>
+        <v>0.167706517475979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2291421975486034</v>
+        <v>0.232108926604815</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -904,19 +904,19 @@
         <v>149292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130625</v>
+        <v>127615</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171983</v>
+        <v>171155</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2253613944501015</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1971835283700152</v>
+        <v>0.1926395416961479</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2596144939074148</v>
+        <v>0.2583652272991205</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>273</v>
@@ -925,19 +925,19 @@
         <v>281715</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251354</v>
+        <v>253324</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309556</v>
+        <v>310806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.211621874114765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1888151803524449</v>
+        <v>0.1902950246074402</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2325355922234254</v>
+        <v>0.2334745473073377</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>113093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95172</v>
+        <v>96056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134624</v>
+        <v>136313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1691078240350883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1423104778712524</v>
+        <v>0.1436322399348918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2013024915118277</v>
+        <v>0.2038279144672002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -975,19 +975,19 @@
         <v>108888</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91040</v>
+        <v>90196</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127030</v>
+        <v>127661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1643706442333239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1374282182043284</v>
+        <v>0.1361544502714242</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1917563556926975</v>
+        <v>0.1927085676474999</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -996,19 +996,19 @@
         <v>221981</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197868</v>
+        <v>196071</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>253183</v>
+        <v>251268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1667504570750883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1486365502735603</v>
+        <v>0.1472866236920461</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1901890381818077</v>
+        <v>0.1887504129887551</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>98931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80886</v>
+        <v>81898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116182</v>
+        <v>118868</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1479308306160545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1209483217909104</v>
+        <v>0.1224613338562595</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1737268803389856</v>
+        <v>0.1777431654052034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -1046,19 +1046,19 @@
         <v>115903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97594</v>
+        <v>97643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136040</v>
+        <v>136300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1749600910363116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1473221896655028</v>
+        <v>0.1473955333821447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.205357148171161</v>
+        <v>0.2057501111751604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>210</v>
@@ -1067,19 +1067,19 @@
         <v>214834</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>191093</v>
+        <v>190251</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>243901</v>
+        <v>243855</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1613814253019934</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1435478143603153</v>
+        <v>0.1429147687954507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1832166013103886</v>
+        <v>0.1831819884772322</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>264736</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>237277</v>
+        <v>236637</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>292419</v>
+        <v>293270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2607940145042596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2337434961284244</v>
+        <v>0.2331139175503213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2880653477481861</v>
+        <v>0.2889028650989199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -1192,19 +1192,19 @@
         <v>255082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>225813</v>
+        <v>228587</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282737</v>
+        <v>286602</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2454313855572501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2172701103990509</v>
+        <v>0.2199389240880491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2720405028775917</v>
+        <v>0.2757586772396288</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>493</v>
@@ -1213,19 +1213,19 @@
         <v>519818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>479536</v>
+        <v>480169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>562618</v>
+        <v>560346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.253022199630636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2334151384222926</v>
+        <v>0.2337228616623812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2738551379429015</v>
+        <v>0.2727492916586221</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>168298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145399</v>
+        <v>146347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194288</v>
+        <v>194237</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1657917940567676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1432344965438298</v>
+        <v>0.1441683701823005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1913954030773067</v>
+        <v>0.191345264905149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -1263,19 +1263,19 @@
         <v>175205</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151641</v>
+        <v>151946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>203104</v>
+        <v>199328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1685765347274786</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1459044239676547</v>
+        <v>0.1461970985203152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1954196298063831</v>
+        <v>0.1917871611403703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>316</v>
@@ -1284,19 +1284,19 @@
         <v>343503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>309629</v>
+        <v>307085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>379582</v>
+        <v>381195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1672005691458795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.15071238269756</v>
+        <v>0.1494739447152129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1847620601612177</v>
+        <v>0.1855470431388448</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>217640</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>191421</v>
+        <v>194277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>245760</v>
+        <v>246785</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2143996192345022</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.188571017436512</v>
+        <v>0.1913842912045146</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2421008520498105</v>
+        <v>0.2431104556258515</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -1334,19 +1334,19 @@
         <v>219986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>193542</v>
+        <v>194576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>248149</v>
+        <v>249127</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2116629392793273</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1862199582119063</v>
+        <v>0.1872144640261021</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2387613718262597</v>
+        <v>0.2397018049446171</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>410</v>
@@ -1355,19 +1355,19 @@
         <v>437626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>400930</v>
+        <v>403990</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>476559</v>
+        <v>481757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2130151576261838</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1951534638867959</v>
+        <v>0.1966427987888343</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2319659567257602</v>
+        <v>0.2344961871582907</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>188397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161886</v>
+        <v>163696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212258</v>
+        <v>216747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1855918217589022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1594757702679613</v>
+        <v>0.1612583326707867</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2090978346751156</v>
+        <v>0.213519163224849</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>209</v>
@@ -1405,19 +1405,19 @@
         <v>219895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>192679</v>
+        <v>192311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>248432</v>
+        <v>243254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2115756993086039</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1853898625358151</v>
+        <v>0.1850356699781848</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2390332253750968</v>
+        <v>0.2340509961137297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>387</v>
@@ -1426,19 +1426,19 @@
         <v>408292</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>371889</v>
+        <v>366313</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>446452</v>
+        <v>446258</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.198736830123795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1810176019046568</v>
+        <v>0.1783036245423934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2173111666128798</v>
+        <v>0.2172165734876027</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>176044</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151482</v>
+        <v>150861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203522</v>
+        <v>203599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1734227504455684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1492261898553782</v>
+        <v>0.1486149665708524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2004916435908516</v>
+        <v>0.2005673414205958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>158</v>
@@ -1476,19 +1476,19 @@
         <v>169153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>145628</v>
+        <v>143444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193101</v>
+        <v>192871</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1627534411273402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1401182340895241</v>
+        <v>0.1380174963368772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1857957234981353</v>
+        <v>0.1855745401157926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>313</v>
@@ -1497,19 +1497,19 @@
         <v>345197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>309168</v>
+        <v>309563</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>379017</v>
+        <v>382945</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1680252434735056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1504881524778185</v>
+        <v>0.1506801407274146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.184486904833973</v>
+        <v>0.1863990009906243</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>163450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144068</v>
+        <v>140413</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188255</v>
+        <v>187480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.21684702530197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1911326991332851</v>
+        <v>0.186283995684468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2497546357857643</v>
+        <v>0.2487272509095058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -1622,19 +1622,19 @@
         <v>145654</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125105</v>
+        <v>124515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169373</v>
+        <v>168924</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1867242138175432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1603809756938425</v>
+        <v>0.1596249052828754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2171311438957162</v>
+        <v>0.216555235892945</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>289</v>
@@ -1643,19 +1643,19 @@
         <v>309104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>277071</v>
+        <v>275715</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>340889</v>
+        <v>340170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2015274361922435</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1806425039163236</v>
+        <v>0.1797582446565414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2222500244706101</v>
+        <v>0.2217813176091038</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>154900</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131582</v>
+        <v>132893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178795</v>
+        <v>180675</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2055037834861933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1745678108003947</v>
+        <v>0.1763067764382314</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2372048814336412</v>
+        <v>0.2396995819366759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1693,19 +1693,19 @@
         <v>152463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130178</v>
+        <v>131369</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174121</v>
+        <v>176338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1954534322689058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1668839422006542</v>
+        <v>0.1684113783273873</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2232172964721481</v>
+        <v>0.2260604864588801</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>285</v>
@@ -1714,19 +1714,19 @@
         <v>307364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>279819</v>
+        <v>277906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344388</v>
+        <v>340011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2003924660669383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.182434282613407</v>
+        <v>0.1811866988761703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2245316027615983</v>
+        <v>0.2216779064581734</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>186498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>161581</v>
+        <v>161572</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>210507</v>
+        <v>210620</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2474239127330357</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2143665946252067</v>
+        <v>0.2143546479560987</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2792768536134336</v>
+        <v>0.27942614412726</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>174</v>
@@ -1764,19 +1764,19 @@
         <v>183854</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>160895</v>
+        <v>159175</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>212353</v>
+        <v>207775</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2356956412759993</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2062624643483232</v>
+        <v>0.2040575103967912</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2722296542413623</v>
+        <v>0.2663608171928928</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>340</v>
@@ -1785,19 +1785,19 @@
         <v>370352</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>333963</v>
+        <v>336232</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>407390</v>
+        <v>406502</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2414592536977388</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2177346545974019</v>
+        <v>0.2192138937581748</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2656068404831671</v>
+        <v>0.2650276907573028</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>141356</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120786</v>
+        <v>120506</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>163996</v>
+        <v>165704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1875353937217761</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1602445450357814</v>
+        <v>0.1598740650753844</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.217571803166848</v>
+        <v>0.219837385221538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>142</v>
@@ -1835,19 +1835,19 @@
         <v>149637</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129322</v>
+        <v>128873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>173396</v>
+        <v>171363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1918295172272866</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1657870308453497</v>
+        <v>0.1652116763853329</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2222880106262948</v>
+        <v>0.2196820772429592</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -1856,19 +1856,19 @@
         <v>290993</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>261391</v>
+        <v>260991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>326467</v>
+        <v>321621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1897192605140524</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1704196514356699</v>
+        <v>0.1701587321515362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2128472574846928</v>
+        <v>0.209688110977188</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>107554</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88302</v>
+        <v>89343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128622</v>
+        <v>129428</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1426898847570249</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1171494643567275</v>
+        <v>0.1185297122728391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1706415474629425</v>
+        <v>0.1717100406032204</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -1906,19 +1906,19 @@
         <v>148441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127265</v>
+        <v>126300</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>173734</v>
+        <v>169801</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1902971954102651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1631493918801148</v>
+        <v>0.1619122968725398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2227220900042707</v>
+        <v>0.2176801833622192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -1927,19 +1927,19 @@
         <v>255995</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>226098</v>
+        <v>226620</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284221</v>
+        <v>286824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.166901583529027</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1474098047448295</v>
+        <v>0.1477501392008493</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1853042344851612</v>
+        <v>0.1870011474423507</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>197196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>174789</v>
+        <v>171051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>224470</v>
+        <v>224261</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2125009978537703</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1883552210589775</v>
+        <v>0.1843266037258486</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2418914109631891</v>
+        <v>0.2416670041957482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>226</v>
@@ -2052,19 +2052,19 @@
         <v>248830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>220740</v>
+        <v>218236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>276177</v>
+        <v>275950</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2403234240940313</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2131939413515244</v>
+        <v>0.210775610075825</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2667353042604659</v>
+        <v>0.2665165488985735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>421</v>
@@ -2073,19 +2073,19 @@
         <v>446026</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>408446</v>
+        <v>408018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>485864</v>
+        <v>482125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2271733088576996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2080327567509585</v>
+        <v>0.2078147025012753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2474640643216415</v>
+        <v>0.2455598082518719</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>186900</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>163203</v>
+        <v>163240</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208603</v>
+        <v>212565</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2014057025898845</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1758694172664993</v>
+        <v>0.1759090138185015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2247931053890931</v>
+        <v>0.2290627756140475</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>192</v>
@@ -2123,19 +2123,19 @@
         <v>208449</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>182609</v>
+        <v>181249</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>237376</v>
+        <v>234032</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.201322864063486</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1763666658828764</v>
+        <v>0.1750530754941062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2292614402355598</v>
+        <v>0.226031449539353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>381</v>
@@ -2144,19 +2144,19 @@
         <v>395349</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>360866</v>
+        <v>364120</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>431918</v>
+        <v>432388</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.201362017232902</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1837987934787315</v>
+        <v>0.1854565667465964</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2199878039675696</v>
+        <v>0.2202270162817355</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>187417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>163877</v>
+        <v>165838</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>213806</v>
+        <v>215440</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2019633252854404</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1765960805698552</v>
+        <v>0.1787088820151711</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.230400569034009</v>
+        <v>0.2321608688700704</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -2194,19 +2194,19 @@
         <v>192329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>167815</v>
+        <v>167856</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>217744</v>
+        <v>217850</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1857538048710238</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1620778077404192</v>
+        <v>0.1621179667601979</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.210300197831223</v>
+        <v>0.2104029628256509</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>368</v>
@@ -2215,19 +2215,19 @@
         <v>379746</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>345353</v>
+        <v>343933</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>419979</v>
+        <v>414460</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1934151446670045</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.175898049400306</v>
+        <v>0.1751744059213319</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2139067531020727</v>
+        <v>0.2110958440009575</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>164323</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>142731</v>
+        <v>143416</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188147</v>
+        <v>187343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.177076601135579</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1538082571370797</v>
+        <v>0.1545467436818518</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2027493971817653</v>
+        <v>0.2018830200025759</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -2265,19 +2265,19 @@
         <v>163010</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139120</v>
+        <v>139991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>188574</v>
+        <v>187812</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1574374273204483</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1343641859412789</v>
+        <v>0.1352054897972988</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1821278975500392</v>
+        <v>0.1813910764178457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>314</v>
@@ -2286,19 +2286,19 @@
         <v>327333</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>292101</v>
+        <v>294809</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>362512</v>
+        <v>362600</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1667197737479356</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1487751812599717</v>
+        <v>0.1501543348336585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1846372377056058</v>
+        <v>0.1846819424129335</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>192141</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>168945</v>
+        <v>167790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>216380</v>
+        <v>218691</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2070533731353258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1820568732891506</v>
+        <v>0.1808129210208699</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2331737898593652</v>
+        <v>0.2356641110592397</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>205</v>
@@ -2336,19 +2336,19 @@
         <v>222778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>194315</v>
+        <v>198319</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>248987</v>
+        <v>250783</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2151624796510106</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1876717201283984</v>
+        <v>0.1915394512913193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.240474868523234</v>
+        <v>0.2422093614603896</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>390</v>
@@ -2357,19 +2357,19 @@
         <v>414919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>378032</v>
+        <v>381520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>450585</v>
+        <v>456560</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2113297554944583</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1925422548431677</v>
+        <v>0.1943184916264972</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2294951260047023</v>
+        <v>0.2325386245420831</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>824624</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>773592</v>
+        <v>773848</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>875207</v>
+        <v>874248</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2450144489832675</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2298518769288588</v>
+        <v>0.2299276948251139</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2600439483743149</v>
+        <v>0.2597589000884593</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>785</v>
@@ -2482,19 +2482,19 @@
         <v>833861</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>783081</v>
+        <v>785757</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>894361</v>
+        <v>887654</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2370795547128171</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2226419365634334</v>
+        <v>0.2234026011507653</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2542804913603072</v>
+        <v>0.2523737183874284</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1581</v>
@@ -2503,19 +2503,19 @@
         <v>1658485</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1588700</v>
+        <v>1590515</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1731042</v>
+        <v>1729949</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2409596107594666</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2308206107047135</v>
+        <v>0.2310842755167323</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2515013336329888</v>
+        <v>0.2513424356294541</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>635172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>592568</v>
+        <v>586855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>685948</v>
+        <v>683634</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1887240889582974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1760653086895574</v>
+        <v>0.1743678663659424</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2038108244587855</v>
+        <v>0.2031231215082636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>602</v>
@@ -2553,19 +2553,19 @@
         <v>640194</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>598727</v>
+        <v>594129</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>689407</v>
+        <v>685817</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1820169549794115</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1702272790795506</v>
+        <v>0.168920078064817</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1960089019495969</v>
+        <v>0.194988336131009</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1209</v>
@@ -2574,19 +2574,19 @@
         <v>1275366</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1206471</v>
+        <v>1211045</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1336247</v>
+        <v>1341654</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1852966528384464</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1752868672795251</v>
+        <v>0.1759514196162792</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1941419078016911</v>
+        <v>0.19492757652453</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>723978</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>681680</v>
+        <v>676034</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>777186</v>
+        <v>771670</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.21511040913632</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2025424825192359</v>
+        <v>0.2008651154018733</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2309197383482852</v>
+        <v>0.2292807586875332</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>703</v>
@@ -2624,19 +2624,19 @@
         <v>745461</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>697576</v>
+        <v>696969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>793821</v>
+        <v>794467</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2119458685518697</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1983314695114033</v>
+        <v>0.1981590206958352</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2256954539401241</v>
+        <v>0.2258792501097253</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1391</v>
@@ -2645,19 +2645,19 @@
         <v>1469439</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1397480</v>
+        <v>1396342</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1540702</v>
+        <v>1534900</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2134932861243116</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2030384736449698</v>
+        <v>0.2028730797064485</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.223846957874475</v>
+        <v>0.2230040496488379</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>607169</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>560745</v>
+        <v>562518</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>653887</v>
+        <v>652102</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1804038114199495</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1666101238619214</v>
+        <v>0.1671369097829647</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1942846686444074</v>
+        <v>0.1937543978287712</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>607</v>
@@ -2695,19 +2695,19 @@
         <v>641430</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>590766</v>
+        <v>596662</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>685907</v>
+        <v>687828</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1823683319641755</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1679637726909912</v>
+        <v>0.1696400681378599</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1950139172054201</v>
+        <v>0.1955601341299758</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1188</v>
@@ -2716,19 +2716,19 @@
         <v>1248599</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1191486</v>
+        <v>1182738</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1322826</v>
+        <v>1309771</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1814077079713925</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1731098385155982</v>
+        <v>0.1718387775771642</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.192192012786013</v>
+        <v>0.1902953489851615</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>574669</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>534011</v>
+        <v>529844</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>622558</v>
+        <v>616987</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1707472415021656</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1586667476873073</v>
+        <v>0.1574287707544421</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1849760335715701</v>
+        <v>0.183320742203661</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>616</v>
@@ -2766,19 +2766,19 @@
         <v>656276</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>607931</v>
+        <v>605522</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>705417</v>
+        <v>702221</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1865892897917263</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1728440948600078</v>
+        <v>0.17215908796288</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.200560895328918</v>
+        <v>0.1996521889138319</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1150</v>
@@ -2787,19 +2787,19 @@
         <v>1230945</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1166854</v>
+        <v>1165007</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1301806</v>
+        <v>1297881</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1788427423063828</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.169530959859641</v>
+        <v>0.1692627191404379</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.189138004800618</v>
+        <v>0.1885678532650978</v>
       </c>
     </row>
     <row r="33">
